--- a/PCB/CE/BOM.xlsx
+++ b/PCB/CE/BOM.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="BOM_Board1_PCB1_2024-12-29" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="BOM_Board1_PCB1_2025-01-12" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
   <si>
     <t>No.</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Test-Point</t>
   </si>
   <si>
-    <t>3.3V,5V,D0,RGB1,VOUT</t>
+    <t>D0,RGB1</t>
   </si>
   <si>
     <t>Test-Point-0.5mm</t>
@@ -100,6 +100,24 @@
     <t>4</t>
   </si>
   <si>
+    <t>BSMD0603-075-6V</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F0603</t>
+  </si>
+  <si>
+    <t>BHFUSE(佰宏)</t>
+  </si>
+  <si>
+    <t>C914092</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>XGS-PB2012UB-02</t>
   </si>
   <si>
@@ -112,7 +130,7 @@
     <t>C9900021489</t>
   </si>
   <si>
-    <t>5</t>
+    <t>6</t>
   </si>
   <si>
     <t>Header8PX2</t>
@@ -127,7 +145,25 @@
     <t>C9900112582</t>
   </si>
   <si>
-    <t>6</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>WNM2020-3/TR-VB</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>SOT-23-3_L2.9-W1.3-P0.95-LS2.4-BR</t>
+  </si>
+  <si>
+    <t>VBsemi(微碧半导体)</t>
+  </si>
+  <si>
+    <t>C7463694</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>680Ω</t>
@@ -148,7 +184,7 @@
     <t>C17798</t>
   </si>
   <si>
-    <t>7</t>
+    <t>9</t>
   </si>
   <si>
     <t>100Ω</t>
@@ -166,7 +202,7 @@
     <t>C22775</t>
   </si>
   <si>
-    <t>8</t>
+    <t>10</t>
   </si>
   <si>
     <t>RP2040-Tiny</t>
@@ -182,6 +218,24 @@
   </si>
   <si>
     <t>C7437606</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>SK-3293S</t>
+  </si>
+  <si>
+    <t>VSEL</t>
+  </si>
+  <si>
+    <t>SW-SMD_SK-3293S</t>
+  </si>
+  <si>
+    <t>XKB Connectivity(中国星坤)</t>
+  </si>
+  <si>
+    <t>C466006</t>
   </si>
 </sst>
 </file>
@@ -558,7 +612,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -604,7 +658,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -718,10 +772,10 @@
         <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
         <v>21</v>
@@ -729,31 +783,31 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
         <v>35</v>
       </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
       <c r="H6" t="s">
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s">
         <v>21</v>
@@ -761,31 +815,31 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
       <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
         <v>43</v>
-      </c>
-      <c r="I7" t="s">
-        <v>44</v>
       </c>
       <c r="J7" t="s">
         <v>21</v>
@@ -793,31 +847,31 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>45</v>
       </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>46</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>47</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>48</v>
       </c>
-      <c r="F8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>49</v>
-      </c>
-      <c r="H8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" t="s">
-        <v>50</v>
       </c>
       <c r="J8" t="s">
         <v>21</v>
@@ -825,25 +879,25 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
         <v>52</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>53</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
         <v>54</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>52</v>
       </c>
       <c r="H9" t="s">
         <v>55</v>
@@ -855,8 +909,104 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
     </row>
